--- a/biology/Zoologie/Calao_de_Hartlaub/Calao_de_Hartlaub.xlsx
+++ b/biology/Zoologie/Calao_de_Hartlaub/Calao_de_Hartlaub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horizocerus hartlaubi
 Le Calao de Hartlaub (Horizocerus hartlaubi) ou calao pygmée à bec noir, est une espèce africaine d'oiseaux appartenant à la famille des Bucerotidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend sur l'Afrique équatoriale.
 </t>
@@ -543,7 +557,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ 32 cm.
 </t>
@@ -574,11 +590,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Tockus.
-Sous-espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calao_de_Hartlaub</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calao_de_Hartlaub</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Horizocerus hartlaubi hartlaubi (Gould) 1861.
 Horizocerus hartlaubi granti (Hartert) 1895 ;
 </t>
